--- a/tables/phi.xlsx
+++ b/tables/phi.xlsx
@@ -401,18 +401,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511</v>
+        <v>0.383</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -424,17 +424,17 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -447,16 +447,16 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.000319</v>
+        <v>0.000385</v>
       </c>
       <c r="F4" t="n">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/tables/phi.xlsx
+++ b/tables/phi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">phi</t>
   </si>
   <si>
@@ -36,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+RR+NNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+R+Z</t>
   </si>
 </sst>
 </file>
@@ -392,71 +404,95 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>196</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68</v>
-      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>162</v>
+      </c>
+      <c r="I2" t="n">
+        <v>57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>2.48</v>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>264</v>
-      </c>
-      <c r="G3" t="n">
-        <v>93</v>
-      </c>
+        <v>1.85</v>
+      </c>
+      <c r="G3"/>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="n">
-        <v>0.000385</v>
-      </c>
-      <c r="F4" t="n">
-        <v>207</v>
-      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>0.000369</v>
       </c>
       <c r="H4" t="n">
-        <v>73</v>
+        <v>169</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tables/phi.xlsx
+++ b/tables/phi.xlsx
@@ -425,15 +425,15 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.553</v>
+        <v>0.572</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I2" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J2" t="n">
         <v>61</v>
@@ -454,17 +454,17 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>5.56</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.000369</v>
+        <v>0.000477</v>
       </c>
       <c r="H4" t="n">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I4" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tables/phi.xlsx
+++ b/tables/phi.xlsx
@@ -425,18 +425,18 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.572</v>
+        <v>0.565</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="n">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I2" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -454,17 +454,17 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>5.56</v>
+        <v>5.22</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J3" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.000477</v>
+        <v>0.000051</v>
       </c>
       <c r="H4" t="n">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
